--- a/biology/Botanique/Atriplex/Atriplex.xlsx
+++ b/biology/Botanique/Atriplex/Atriplex.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atriplex est un genre de plantes de la famille des Amaranthaceae selon la classification phylogénétique (anciennement famille des Chenopodiaceae), comprenant environ une centaine d'espèces des régions tempérées et chaudes. Elles sont également appelées « arroche » (nom vernaculaire). 
 Selon les auteurs, quelques espèces du genre Atriplex sont placées dans le genre Halimione.
@@ -512,9 +524,11 @@
           <t>Phytonymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom Atriplex vient du grec a, privatif, et trephein, signifiant « nourrir » : cette étymologie fait référence aux vertus alimentaires minimes de la plante. De même, son nom vernaculaire d'« arroche » vient du grec ancien atraphaxis, signifiant « qui n'est pas nourrissant »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Atriplex vient du grec a, privatif, et trephein, signifiant « nourrir » : cette étymologie fait référence aux vertus alimentaires minimes de la plante. De même, son nom vernaculaire d'« arroche » vient du grec ancien atraphaxis, signifiant « qui n'est pas nourrissant ».
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Quelques espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les 100 à 200 espèces du genre, on trouve :
 Selon ITIS :
@@ -590,7 +606,7 @@
 Atriplex joaquiniana A. Nels.
 Atriplex johnsonii
 Atriplex johnstonii C.B. Wolf
-Atriplex jubata S. Moore, 1921[2],[3]
+Atriplex jubata S. Moore, 1921,
 Atriplex klebergorum M.C. Johnston
 Atriplex laciniata L.
 Atriplex lampa (Moq.) Gillies ex Small
